--- a/data/hotels_by_city/Dallas/Dallas_shard_607.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_607.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="350">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,930 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r587542670-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>55870</t>
+  </si>
+  <si>
+    <t>12478585</t>
+  </si>
+  <si>
+    <t>587542670</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>Excellent amenities and best staff ever!</t>
+  </si>
+  <si>
+    <t>I am an avid business traveler and never have I found a hotel with better staff. Everyone you meet has a smile and willing to go the extra mile to talk with you and ensure your stay is what you expected. Check in process was very transparent too as the manager called me to address that I requested a certain type of room but it wasnt close to elevator as I requested. She confirmed if the room type or proximity to elevator was more important and got me a room halfway down the hall.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r587089267-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>587089267</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>Perfect Location! Hotel staff is friendly and helpful.  Check in &amp; out is very quick and easy.  Everything is conveniently located - shopping, sports, entertainment, dining.  Room was clean, bed was super comfortable.  The shower is amazing!  And best part - you can see the Six Flags fireworks show from your room!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r587089264-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>587089264</t>
+  </si>
+  <si>
+    <t>Excellent hotel in a great location</t>
+  </si>
+  <si>
+    <t>We used The Omni Frisco to host a group of business associates at our headquarters.  Everyone in our group was thrilled with their stay.  The hotel alone is great but the access to The Star and other restaurants in walking distance took it to another level.   The rooms were well appointed and extremely comfortable.  The staff was friendly, helpful and efficient.  Would highly recommend for your next business or pleasure trip in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r586184757-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>586184757</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Girl’s Weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean room. Friendly staff.  Awesome view of the Star from our room.  Multiple restaurants and bars close by for entertainment.  Close to Legacy West more restaurants, bars, and shopping.  We had a blast for a girl’s weekend.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r586051335-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>586051335</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Best hotel I've stayed at in a long time</t>
+  </si>
+  <si>
+    <t>I came here just for one night in June to attend a conference.  I was expecting it to be very nice as it was brand new and the website made me expect it to be pretty awesome.  I was not disappointed.  The service was great, the hotel is beautiful, the rooms are well appointed, clean and well organized.  The TV on the wall is massive!  It has to be the biggest TV I have seen in a standard hotel room.  The bathroom is very nice and large.  All in all, I've only been to Frisco, TX this one time, but this has to be the best hotel in town.  Also, this is attached to the Cowboys new training facility, which deserves a great review in its own right.MoreShow less</t>
+  </si>
+  <si>
+    <t>I came here just for one night in June to attend a conference.  I was expecting it to be very nice as it was brand new and the website made me expect it to be pretty awesome.  I was not disappointed.  The service was great, the hotel is beautiful, the rooms are well appointed, clean and well organized.  The TV on the wall is massive!  It has to be the biggest TV I have seen in a standard hotel room.  The bathroom is very nice and large.  All in all, I've only been to Frisco, TX this one time, but this has to be the best hotel in town.  Also, this is attached to the Cowboys new training facility, which deserves a great review in its own right.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r585230505-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>585230505</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Great staff, pleasant stay</t>
+  </si>
+  <si>
+    <t>Great valet, bellboys and front desk make a great first impression at this hotel with a fun location next door to Ford Center in Frisco.  All makes for a fun stay.  And the hotel is "pet friendly," albeit for a steep pet free, even when no damage is caused.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Simone C, Guest Relations Manager at Omni Frisco Hotel, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Great valet, bellboys and front desk make a great first impression at this hotel with a fun location next door to Ford Center in Frisco.  All makes for a fun stay.  And the hotel is "pet friendly," albeit for a steep pet free, even when no damage is caused.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r584260637-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>584260637</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>our anniversary trip</t>
+  </si>
+  <si>
+    <t>The location of our room was overlooking pool and front of Ford Center. if we stay again would love the same room.  We enjoyed biking in the adjoining  area. Hotel staff stored our bikes for us which was a great help.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The location of our room was overlooking pool and front of Ford Center. if we stay again would love the same room.  We enjoyed biking in the adjoining  area. Hotel staff stored our bikes for us which was a great help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r583211234-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>583211234</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>I have nothing but praise for the hotel, the staff, the service, etc.  Even the fact that I’m not a football fan didn’t tarnish the stay.  The rooms are great and there are plenty of options for food nearby.  There is a nearby shopping district that is a short ride from the hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>I have nothing but praise for the hotel, the staff, the service, etc.  Even the fact that I’m not a football fan didn’t tarnish the stay.  The rooms are great and there are plenty of options for food nearby.  There is a nearby shopping district that is a short ride from the hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r584260666-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>584260666</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>1st time Omni stay</t>
+  </si>
+  <si>
+    <t>I've stayed at a lot of "brand" hotels and this experience was by far one of the best.  The quality of the service, rooms and staff were exceptional.   Location was beside the Dallas Cowboys training facility. Great 4th floor infinity pool as well with access to 17 restaurants in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed at a lot of "brand" hotels and this experience was by far one of the best.  The quality of the service, rooms and staff were exceptional.   Location was beside the Dallas Cowboys training facility. Great 4th floor infinity pool as well with access to 17 restaurants in the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r580228548-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>580228548</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Mother's Day Staycation</t>
+  </si>
+  <si>
+    <t>My husband and son treated me to a weekend at the Omni Frisco for Mother's Day weekend 2018. It was fantastic! The room had a view of the Dallas Cowboys practice facility that was out of sight! We were on the 15th floor and could see just about everything. It was a great stay. Staff was warm and accommodating. Rooms are nice, cozy and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>Simone C, Guest Relations Manager at Omni Frisco Hotel, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>My husband and son treated me to a weekend at the Omni Frisco for Mother's Day weekend 2018. It was fantastic! The room had a view of the Dallas Cowboys practice facility that was out of sight! We were on the 15th floor and could see just about everything. It was a great stay. Staff was warm and accommodating. Rooms are nice, cozy and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r580226613-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>580226613</t>
+  </si>
+  <si>
+    <t>Beautiful facility and great location</t>
+  </si>
+  <si>
+    <t>Having The Star next-door and from my room I can see the complex. Beautiful hotel room and beautiful hotel. Only one year old.  Love the bathrooms, meeting space and lobby area.  Much to do when walking outside and a great location for a business meeting.MoreShow less</t>
+  </si>
+  <si>
+    <t>Having The Star next-door and from my room I can see the complex. Beautiful hotel room and beautiful hotel. Only one year old.  Love the bathrooms, meeting space and lobby area.  Much to do when walking outside and a great location for a business meeting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r584260677-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>584260677</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>Great for Cowboys Fan</t>
+  </si>
+  <si>
+    <t>This hotel and the surrounding area was a terrific experience for this Dallas Cowboys fan.  great view from the hotel of the new practice facility and terrific restaurants and shopping within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel and the surrounding area was a terrific experience for this Dallas Cowboys fan.  great view from the hotel of the new practice facility and terrific restaurants and shopping within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r584260704-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>584260704</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Business trip / Excellent experience !</t>
+  </si>
+  <si>
+    <t>Stayed at Omni Frisco on business trip.  Very clean and excellent staff.  Dallas Cowboys cheerleaders were having an event .. made it interesting ..  everything within walking distance .   Great location! I would recommend Omni Frisco</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r584260703-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>584260703</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>Outstanding service...Top notch hotel with a lot of great restaurant's and bars within walking distance along with the football field at your door steps. Highly recommend this hotel and definitely an experience that we will have to do again soon.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r578401985-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>578401985</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>New &amp; Nice</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay in this brand new Omni property. Staff was excellent. Meeting facilities are beautiful. Located in the new Cowboys complex area. Lots of new restaurants too. Andreas at the front desk was awesome.MoreShow less</t>
+  </si>
+  <si>
+    <t>Simone C, Guest Relations Manager at Omni Frisco Hotel, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay in this brand new Omni property. Staff was excellent. Meeting facilities are beautiful. Located in the new Cowboys complex area. Lots of new restaurants too. Andreas at the front desk was awesome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r576962786-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>576962786</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Over the top service</t>
+  </si>
+  <si>
+    <t>I was there for a conference and had more than a suitcase to carry.  I was immediately greeted by the bellboys outside and they took my stuff directly to the conference room and placed it by the correct table.  The views were amazing overlooking ford field from the pool balcony during a meet and greet reception. The rooms were top notch with a huge bathroom and comfortable bed.  When the conference was over, the bellboys came and took my box to the concierge desk for me.  I love it I had no worries.  The food at the conference was hot on the buffet line (most of the time, food is luke warm on buffet lines).  Every staff member greeted me with a smile and hello, unlike some other hotels.  I hope to be back here again for another conference.MoreShow less</t>
+  </si>
+  <si>
+    <t>Simone C, Guest Relations Manager at Omni Frisco Hotel, responded to this reviewResponded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2018</t>
+  </si>
+  <si>
+    <t>I was there for a conference and had more than a suitcase to carry.  I was immediately greeted by the bellboys outside and they took my stuff directly to the conference room and placed it by the correct table.  The views were amazing overlooking ford field from the pool balcony during a meet and greet reception. The rooms were top notch with a huge bathroom and comfortable bed.  When the conference was over, the bellboys came and took my box to the concierge desk for me.  I love it I had no worries.  The food at the conference was hot on the buffet line (most of the time, food is luke warm on buffet lines).  Every staff member greeted me with a smile and hello, unlike some other hotels.  I hope to be back here again for another conference.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r571930680-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>571930680</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>More than just a place to stay</t>
+  </si>
+  <si>
+    <t>hotel offers wonderful restaurant /bar/beautiful gift shop with unique itemswalk to take a tour of the Star Dallas Cowboys training center///so many restaurants within a minutes walk/down the street Texas sculpture gardenMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Simone C, Guest Relations Manager at Omni Frisco Hotel, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>hotel offers wonderful restaurant /bar/beautiful gift shop with unique itemswalk to take a tour of the Star Dallas Cowboys training center///so many restaurants within a minutes walk/down the street Texas sculpture gardenMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r570272396-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>570272396</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Excellent Conference Hotel with Top Notch Staff</t>
+  </si>
+  <si>
+    <t>I recently attended a work conference at this hotel and it was a top-notch experience.  The hotel is new, spacious and in the middle of Frisco Texas next to the Dallas Cowboys practice facility. The conference facilities weeks top notch. The rooms were well lot, the audio and video was excellent quality. The conference food was 5 star.  The staff went above and beyond to endure guest satisfaction There is plenty of free parking near the hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>Simone C, Guest Relations Manager at Omni Frisco Hotel, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>I recently attended a work conference at this hotel and it was a top-notch experience.  The hotel is new, spacious and in the middle of Frisco Texas next to the Dallas Cowboys practice facility. The conference facilities weeks top notch. The rooms were well lot, the audio and video was excellent quality. The conference food was 5 star.  The staff went above and beyond to endure guest satisfaction There is plenty of free parking near the hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r566866426-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>566866426</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel but cleaning service was questionable </t>
+  </si>
+  <si>
+    <t>I stayed here for one night with family. The hotel was very nice and aesthetically pleasing, however when we walked in to the room there was toilet tissue in the commode and the roll was not folded as is customary after a room has been cleaned. We informed the front desk, they said they would check with the cleaning staff but we never received word whether it was cleaned before us, no one came to clean again, and we were not offered a discount for the trouble. The shower only has half a door so water splashes all outside of the stall creating an unnecessary mess. The area was nice and there are several bars and restaurants available within walking distance. The parking is awkwardly located caddy corner from the hotel, so unless you are valet parking, you have to walk about half a block with your things. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Simone C, Guest Relations Manager at Omni Frisco Hotel, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here for one night with family. The hotel was very nice and aesthetically pleasing, however when we walked in to the room there was toilet tissue in the commode and the roll was not folded as is customary after a room has been cleaned. We informed the front desk, they said they would check with the cleaning staff but we never received word whether it was cleaned before us, no one came to clean again, and we were not offered a discount for the trouble. The shower only has half a door so water splashes all outside of the stall creating an unnecessary mess. The area was nice and there are several bars and restaurants available within walking distance. The parking is awkwardly located caddy corner from the hotel, so unless you are valet parking, you have to walk about half a block with your things. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r566864129-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>566864129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel but needs service improvement </t>
+  </si>
+  <si>
+    <t>Stayed here with family and the room was lovely. The bed was super comfortable and I really wanted to take home the Cowboys throw blanket, lol. However, when we entered the room there was toilet paper in the toilet and the toilet paper roll was not folded as is customary after a room is cleaned. I informed the front desk and they apologized and said they would speak with the cleaning staff but did not send someone to ensure it was cleaned or offer a discount off our stay for the trouble. I found that odd. Also, the showers only have half doors which aesthetically looks nice but when taking a shower the water gets all outside of the tub which makes a big unnecessary mess. The area is nice, the hotel is aesthetically pleasing, and I really wanted to try the gym but unfortunately our time was limited. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here with family and the room was lovely. The bed was super comfortable and I really wanted to take home the Cowboys throw blanket, lol. However, when we entered the room there was toilet paper in the toilet and the toilet paper roll was not folded as is customary after a room is cleaned. I informed the front desk and they apologized and said they would speak with the cleaning staff but did not send someone to ensure it was cleaned or offer a discount off our stay for the trouble. I found that odd. Also, the showers only have half doors which aesthetically looks nice but when taking a shower the water gets all outside of the tub which makes a big unnecessary mess. The area is nice, the hotel is aesthetically pleasing, and I really wanted to try the gym but unfortunately our time was limited. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r565942648-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>565942648</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good business hotel </t>
+  </si>
+  <si>
+    <t>We recently had a team meeting at this hotel. Accommodations were great.  Lunch for 200 was terrific. AV and support was great. Rooms are very nice. Fitness center was good.  About a 20 minute ride from airport. Great views of cowboys practice facility.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Simone C, Guest Relations Manager at Omni Frisco Hotel, responded to this reviewResponded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2018</t>
+  </si>
+  <si>
+    <t>We recently had a team meeting at this hotel. Accommodations were great.  Lunch for 200 was terrific. AV and support was great. Rooms are very nice. Fitness center was good.  About a 20 minute ride from airport. Great views of cowboys practice facility.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r563600369-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>563600369</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>Business owner - Association member</t>
+  </si>
+  <si>
+    <t>Manager and Her team are excellent. Restaurant for Breakfast was excellent.Gym is very appealing. The convention Center service is very good and they have packed individual snacks, looks and is clean MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager and Her team are excellent. Restaurant for Breakfast was excellent.Gym is very appealing. The convention Center service is very good and they have packed individual snacks, looks and is clean More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r562686182-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>562686182</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>Omni Frisco Hotel @Star</t>
+  </si>
+  <si>
+    <t>Great Getting always for COWBOYS FANS at Star. Hotel all about cowboys thought out this beautiful Hotel with great Restaurants other entertainment all around Hotel. Hotel has Rooftop pool and outdoor restaurant.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great Getting always for COWBOYS FANS at Star. Hotel all about cowboys thought out this beautiful Hotel with great Restaurants other entertainment all around Hotel. Hotel has Rooftop pool and outdoor restaurant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r555871795-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>555871795</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>Poor service</t>
+  </si>
+  <si>
+    <t>Hotel is brand new and looks great at first sight. I will be here for four days and I am utterly disappointed just with one day. Room service is one of the worst I have seen anywhere. Service takes about an hour. I ordered an omelette with a couple of vegetables and after the long wait, they bring me an omelette that includes sausage and cheddar cheese. They seem to be able only to prepare the limited items they have on the room service menu. Any special order is treated with a certain disdain. They forget to bring a Fuji water I had ordered and most importantly, the bread for the omelette. I called again for the missing items and it took a while. Called again to see the status of the delivery of the missing items, and they tell me they are coming. Finally it came but not a word of apology. Of course, I ate cold  food. Then I see there is no internet connection and I call guest services but they ask me to call an outside provider. After detailed instructions to bypass the hotel internet registration page, the problem is corrected but just for a single device (my work computer which blocks many pages). I would need to call back to get access to other devices (hopefully). The Tv as mentioned by other reviewers is on the wall, impossible to connect any device for watching Netflix....Hotel is brand new and looks great at first sight. I will be here for four days and I am utterly disappointed just with one day. Room service is one of the worst I have seen anywhere. Service takes about an hour. I ordered an omelette with a couple of vegetables and after the long wait, they bring me an omelette that includes sausage and cheddar cheese. They seem to be able only to prepare the limited items they have on the room service menu. Any special order is treated with a certain disdain. They forget to bring a Fuji water I had ordered and most importantly, the bread for the omelette. I called again for the missing items and it took a while. Called again to see the status of the delivery of the missing items, and they tell me they are coming. Finally it came but not a word of apology. Of course, I ate cold  food. Then I see there is no internet connection and I call guest services but they ask me to call an outside provider. After detailed instructions to bypass the hotel internet registration page, the problem is corrected but just for a single device (my work computer which blocks many pages). I would need to call back to get access to other devices (hopefully). The Tv as mentioned by other reviewers is on the wall, impossible to connect any device for watching Netflix. They offer chrome cast on the Tv but if internet does not work, forget about it. This is just after 12 hours in the hotel. Bear in mind that the hotel is in the middle of nowhere, no restaurants or convenience stores anywhere near. I have a construction site as room view. The room is nicely decorated and the bed is comfortable. Check in was also courteous and swift as well as the concierge person who was very nice. Hopefully they will correct some of the issues I have identified.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Hotel is brand new and looks great at first sight. I will be here for four days and I am utterly disappointed just with one day. Room service is one of the worst I have seen anywhere. Service takes about an hour. I ordered an omelette with a couple of vegetables and after the long wait, they bring me an omelette that includes sausage and cheddar cheese. They seem to be able only to prepare the limited items they have on the room service menu. Any special order is treated with a certain disdain. They forget to bring a Fuji water I had ordered and most importantly, the bread for the omelette. I called again for the missing items and it took a while. Called again to see the status of the delivery of the missing items, and they tell me they are coming. Finally it came but not a word of apology. Of course, I ate cold  food. Then I see there is no internet connection and I call guest services but they ask me to call an outside provider. After detailed instructions to bypass the hotel internet registration page, the problem is corrected but just for a single device (my work computer which blocks many pages). I would need to call back to get access to other devices (hopefully). The Tv as mentioned by other reviewers is on the wall, impossible to connect any device for watching Netflix....Hotel is brand new and looks great at first sight. I will be here for four days and I am utterly disappointed just with one day. Room service is one of the worst I have seen anywhere. Service takes about an hour. I ordered an omelette with a couple of vegetables and after the long wait, they bring me an omelette that includes sausage and cheddar cheese. They seem to be able only to prepare the limited items they have on the room service menu. Any special order is treated with a certain disdain. They forget to bring a Fuji water I had ordered and most importantly, the bread for the omelette. I called again for the missing items and it took a while. Called again to see the status of the delivery of the missing items, and they tell me they are coming. Finally it came but not a word of apology. Of course, I ate cold  food. Then I see there is no internet connection and I call guest services but they ask me to call an outside provider. After detailed instructions to bypass the hotel internet registration page, the problem is corrected but just for a single device (my work computer which blocks many pages). I would need to call back to get access to other devices (hopefully). The Tv as mentioned by other reviewers is on the wall, impossible to connect any device for watching Netflix. They offer chrome cast on the Tv but if internet does not work, forget about it. This is just after 12 hours in the hotel. Bear in mind that the hotel is in the middle of nowhere, no restaurants or convenience stores anywhere near. I have a construction site as room view. The room is nicely decorated and the bed is comfortable. Check in was also courteous and swift as well as the concierge person who was very nice. Hopefully they will correct some of the issues I have identified.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r552123324-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>552123324</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful hotel, but loud </t>
+  </si>
+  <si>
+    <t>We went up to Dallas to see the Cowboys Christmas show and do some things in Frisco and in Dallas. My husband is a huge Cowboys fan, so he’d been dying to stay here. The hotel was lovely. The Cowboys touches are very subtle. The staff was friendly and helpful, the rooms were clean, and housekeeping was great. My only complaint is that both nights the facility at the Star turned on the giant video board at 1am, complete with loud music, flashing lights and lots of noise. It woke us up both nights even with the curtains closed. Friday night they offered us free breakfast. Then it happened again Saturday night. We paid more to stay on the side with a view of the Star, so we essentially paid more to get less rest. I really feel like we should’ve been comped a night for the inconvenience, given that both my small children were awakened, as were my husband and I. No one offered, perhaps I should’ve made a big stink, but that’s just not my style. I don’t know if we’ll be back. Their restaurant is also not child friendly.... no kids menu. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jo Anne D, Guest Relations Manager at Omni Frisco Hotel, responded to this reviewResponded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2018</t>
+  </si>
+  <si>
+    <t>We went up to Dallas to see the Cowboys Christmas show and do some things in Frisco and in Dallas. My husband is a huge Cowboys fan, so he’d been dying to stay here. The hotel was lovely. The Cowboys touches are very subtle. The staff was friendly and helpful, the rooms were clean, and housekeeping was great. My only complaint is that both nights the facility at the Star turned on the giant video board at 1am, complete with loud music, flashing lights and lots of noise. It woke us up both nights even with the curtains closed. Friday night they offered us free breakfast. Then it happened again Saturday night. We paid more to stay on the side with a view of the Star, so we essentially paid more to get less rest. I really feel like we should’ve been comped a night for the inconvenience, given that both my small children were awakened, as were my husband and I. No one offered, perhaps I should’ve made a big stink, but that’s just not my style. I don’t know if we’ll be back. Their restaurant is also not child friendly.... no kids menu. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r548497375-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>548497375</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Wow! First Class!</t>
+  </si>
+  <si>
+    <t>This was my first time to stay and an Omni property and all I can say is "wow." This is a beautiful property in the heart of a bastion of Dallas Cowboy land. Front desk was friendly and check in was quick. While we were out, a small, unexpected gift was delivered to our room (I won't tell you what, to save the surprise for you). A/C was awesome, the view was amazing, and the room was nicely put together. The bed was very comfortable. A very large, flat screen television with plenty of channels was in the room. The hotel's bar may not have been as well stocked as other places, but there were enough choices for a nightcap. I also want to point out that the valet service was efficient and polite, and when we left, they provided us with a nice surprise, too. I will definitely have this property on my list to visit again. You should, too.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was my first time to stay and an Omni property and all I can say is "wow." This is a beautiful property in the heart of a bastion of Dallas Cowboy land. Front desk was friendly and check in was quick. While we were out, a small, unexpected gift was delivered to our room (I won't tell you what, to save the surprise for you). A/C was awesome, the view was amazing, and the room was nicely put together. The bed was very comfortable. A very large, flat screen television with plenty of channels was in the room. The hotel's bar may not have been as well stocked as other places, but there were enough choices for a nightcap. I also want to point out that the valet service was efficient and polite, and when we left, they provided us with a nice surprise, too. I will definitely have this property on my list to visit again. You should, too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r546809843-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>546809843</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>Happy Holiday Stay</t>
+  </si>
+  <si>
+    <t>We had a short one night stay here for a company business party. The hotel is clean, modern, with a very friendly and helpful staff. The Christmas decorations inside and out were beautiful. There are very minimal subtle Cowboy touches to each room for those not Cowboy’s fans. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jo Anne D, Guest Relations Manager at Omni Frisco Hotel, responded to this reviewResponded December 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2017</t>
+  </si>
+  <si>
+    <t>We had a short one night stay here for a company business party. The hotel is clean, modern, with a very friendly and helpful staff. The Christmas decorations inside and out were beautiful. There are very minimal subtle Cowboy touches to each room for those not Cowboy’s fans. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r540532097-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>540532097</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Nice stay at the Star</t>
+  </si>
+  <si>
+    <t>Stayed here one night for business.  The hotel is right in the middle of all the Cowboys action.  Check in was efficient and staff were friendly.   Bar service was slow and staff seemed inconvenienced that I was wanting service.   The rooms were much smaller than expected but they do a decent job using the space. Bathroom was just average. The only real complaint I had was the loudness of the AC unit.  It was so loud I had to turn the volume way up on the TV to hear over it!  Bed was comfy and the room got surprisingly dark even though it looked over the plaza which was pretty bright.   MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Jo Anne D, Guest Relations Manager at Omni Frisco Hotel, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here one night for business.  The hotel is right in the middle of all the Cowboys action.  Check in was efficient and staff were friendly.   Bar service was slow and staff seemed inconvenienced that I was wanting service.   The rooms were much smaller than expected but they do a decent job using the space. Bathroom was just average. The only real complaint I had was the loudness of the AC unit.  It was so loud I had to turn the volume way up on the TV to hear over it!  Bed was comfy and the room got surprisingly dark even though it looked over the plaza which was pretty bright.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r539948193-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>539948193</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>Fun Hotel</t>
+  </si>
+  <si>
+    <t>Great family atmosphere. Super fun. Went for business but would have loved to have gone with the kids! Pretty good location and absolute heaven if you are a cowboys fan. The room was large and very comfortable! MoreShow less</t>
+  </si>
+  <si>
+    <t>Great family atmosphere. Super fun. Went for business but would have loved to have gone with the kids! Pretty good location and absolute heaven if you are a cowboys fan. The room was large and very comfortable! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r539788027-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>539788027</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Had a very nice night at the Omni Frisco</t>
+  </si>
+  <si>
+    <t>Brand new Hotel located within the Cowboy's new HQ. Very nice hotel. I was a guest of a large company to give a presentation. We checked in and went to the greeting area and had nice finger food and waited a little while for the presentation. After the presentation, we were treated to a GREAT tour of the Cowboy facility which I highly recommend to everyone. The dinner was absolutely fantastic for 1. a brand new hotel and 2. a buffet group meal.The hotel is very clean and what I would call minimalist, which I appreciate. The rooms are nice and the bed was comfortable. I did have an issue regulating the room temperature which cost the review a star. If in the area, I would highly suggest you stay and make a weekend of it.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Brand new Hotel located within the Cowboy's new HQ. Very nice hotel. I was a guest of a large company to give a presentation. We checked in and went to the greeting area and had nice finger food and waited a little while for the presentation. After the presentation, we were treated to a GREAT tour of the Cowboy facility which I highly recommend to everyone. The dinner was absolutely fantastic for 1. a brand new hotel and 2. a buffet group meal.The hotel is very clean and what I would call minimalist, which I appreciate. The rooms are nice and the bed was comfortable. I did have an issue regulating the room temperature which cost the review a star. If in the area, I would highly suggest you stay and make a weekend of it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r536406028-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>536406028</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>New hotel with 55" tv in room</t>
+  </si>
+  <si>
+    <t>Nice to be in a newly built hotel but there was a strange smell in the hotel that might be the new carpet. Staff said it was the "Omni" smell, I hope not. Rooms too small for anything more than a couple of days stay. 55" tv was nice. Staff was friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice to be in a newly built hotel but there was a strange smell in the hotel that might be the new carpet. Staff said it was the "Omni" smell, I hope not. Rooms too small for anything more than a couple of days stay. 55" tv was nice. Staff was friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r534050405-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>534050405</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel, But Not As Clean As I'd Hoped</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Omni Frisco Hotel for a work event that we had at a conference room in the Ford Center. The hotel is very nice and beautiful, but upon arriving in my room I was not impressed. I found trimmed black hairs in the soap dish in my bathroom as well as black hairs on the bed and pillow. I didn't say anything since I was only staying one night, but for this price I would expect more cleanliness.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jo Anne D, Guest Relations Manager at Omni Frisco Hotel, responded to this reviewResponded October 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2017</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Omni Frisco Hotel for a work event that we had at a conference room in the Ford Center. The hotel is very nice and beautiful, but upon arriving in my room I was not impressed. I found trimmed black hairs in the soap dish in my bathroom as well as black hairs on the bed and pillow. I didn't say anything since I was only staying one night, but for this price I would expect more cleanliness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r532396899-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>532396899</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>This Place Rocks</t>
+  </si>
+  <si>
+    <t>My stay was short and very sweet.  The hotel is gorgeous and the location great.  It overlooks the Cowboys practice facility!  Wow, a dream hotel for all Cowboys fans.  The area is still developing, and it will be amazing in the coming years.  One note for management, please lighten up on the fragrance that is in the common areas.  ThanksMoreShow less</t>
+  </si>
+  <si>
+    <t>Jo Anne D, Guest Relations Manager at Omni Frisco Hotel, responded to this reviewResponded October 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2017</t>
+  </si>
+  <si>
+    <t>My stay was short and very sweet.  The hotel is gorgeous and the location great.  It overlooks the Cowboys practice facility!  Wow, a dream hotel for all Cowboys fans.  The area is still developing, and it will be amazing in the coming years.  One note for management, please lighten up on the fragrance that is in the common areas.  ThanksMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r529728025-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>529728025</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Give it a couple months....</t>
+  </si>
+  <si>
+    <t>I tagged along with my boyfriend on a Dental Conference and was super excited to stay so close to the Cowboys Practice Field.  The views were stunning...except for from our hotel room.... we looked out onto a building under construction.  They were having a Grand Opening, so I'm guessing the nicer rooms were reserved for the VIP Guests of that.
+The hotel is beautiful...the room was very nice as long as the sheer curtain was closed. We could hear guests relatively early in the morning, but other than that didn't have issues with outside noises.  We were on the 14th floor on the front side of the building (where the valet is).
+MOST of the staff was absolutely fantastic.  The valet was very accommodating even with all of the VIP guests arriving, including the Dallas Cowboy Cheerleaders...that was very cool to see.  The front desk was very nice and friendly.  The only issue was when I went to the concierge to see if she could help me figure out what was around and what to do.  She told us there was not a sports bar within walking distance...we walked outside in the daylight the next day and there was one literally on the corner.  I was also trying to get information on the pool closure, which I THANKFULLY learned from the bellhop.  Saturday the entire pool was closed to guests for this VIP event so I made other plans, without...I tagged along with my boyfriend on a Dental Conference and was super excited to stay so close to the Cowboys Practice Field.  The views were stunning...except for from our hotel room.... we looked out onto a building under construction.  They were having a Grand Opening, so I'm guessing the nicer rooms were reserved for the VIP Guests of that.The hotel is beautiful...the room was very nice as long as the sheer curtain was closed. We could hear guests relatively early in the morning, but other than that didn't have issues with outside noises.  We were on the 14th floor on the front side of the building (where the valet is).MOST of the staff was absolutely fantastic.  The valet was very accommodating even with all of the VIP guests arriving, including the Dallas Cowboy Cheerleaders...that was very cool to see.  The front desk was very nice and friendly.  The only issue was when I went to the concierge to see if she could help me figure out what was around and what to do.  She told us there was not a sports bar within walking distance...we walked outside in the daylight the next day and there was one literally on the corner.  I was also trying to get information on the pool closure, which I THANKFULLY learned from the bellhop.  Saturday the entire pool was closed to guests for this VIP event so I made other plans, without the help of the concierge.Finally, I had been trying to see if they had any shuttles or services from the hotel to Arlington for the game (you would think there would be something) and I was told we had to have 25 people and was not given much other info than that.  With that said, we cancelled our Sunday night and traveled to Arlington for convenience.I highly recommend Neighborhood Services, the restaurant at the front of the hotel. The waiter we had Thursday night was fantastic.  He made great suggestions, food was terrific and we were even able to leave with our wine glasses since we had ordered a bootle.  I went back down there Friday for lunch and the bar tender was fantastic, Ivan, I think.  Was very nice and was able to make many suggestions about what to do in Dallas  since I was left still wondering.I do wish I would have had time to see the facilities, which I think would possibly have made a change in my opinion of the area, but I don't know that we would stay here again unless it was specifically for something in Frisco.  I imagine the little town area is going to be amazing, but we were about a week too early. There are still several restaurants that aren't opened yet and other than a Lincoln dealership and The Star, I'm not sure what else you would travel there for.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jo Anne D, Guest Relations Manager at Omni Frisco Hotel, responded to this reviewResponded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>I tagged along with my boyfriend on a Dental Conference and was super excited to stay so close to the Cowboys Practice Field.  The views were stunning...except for from our hotel room.... we looked out onto a building under construction.  They were having a Grand Opening, so I'm guessing the nicer rooms were reserved for the VIP Guests of that.
+The hotel is beautiful...the room was very nice as long as the sheer curtain was closed. We could hear guests relatively early in the morning, but other than that didn't have issues with outside noises.  We were on the 14th floor on the front side of the building (where the valet is).
+MOST of the staff was absolutely fantastic.  The valet was very accommodating even with all of the VIP guests arriving, including the Dallas Cowboy Cheerleaders...that was very cool to see.  The front desk was very nice and friendly.  The only issue was when I went to the concierge to see if she could help me figure out what was around and what to do.  She told us there was not a sports bar within walking distance...we walked outside in the daylight the next day and there was one literally on the corner.  I was also trying to get information on the pool closure, which I THANKFULLY learned from the bellhop.  Saturday the entire pool was closed to guests for this VIP event so I made other plans, without...I tagged along with my boyfriend on a Dental Conference and was super excited to stay so close to the Cowboys Practice Field.  The views were stunning...except for from our hotel room.... we looked out onto a building under construction.  They were having a Grand Opening, so I'm guessing the nicer rooms were reserved for the VIP Guests of that.The hotel is beautiful...the room was very nice as long as the sheer curtain was closed. We could hear guests relatively early in the morning, but other than that didn't have issues with outside noises.  We were on the 14th floor on the front side of the building (where the valet is).MOST of the staff was absolutely fantastic.  The valet was very accommodating even with all of the VIP guests arriving, including the Dallas Cowboy Cheerleaders...that was very cool to see.  The front desk was very nice and friendly.  The only issue was when I went to the concierge to see if she could help me figure out what was around and what to do.  She told us there was not a sports bar within walking distance...we walked outside in the daylight the next day and there was one literally on the corner.  I was also trying to get information on the pool closure, which I THANKFULLY learned from the bellhop.  Saturday the entire pool was closed to guests for this VIP event so I made other plans, without the help of the concierge.Finally, I had been trying to see if they had any shuttles or services from the hotel to Arlington for the game (you would think there would be something) and I was told we had to have 25 people and was not given much other info than that.  With that said, we cancelled our Sunday night and traveled to Arlington for convenience.I highly recommend Neighborhood Services, the restaurant at the front of the hotel. The waiter we had Thursday night was fantastic.  He made great suggestions, food was terrific and we were even able to leave with our wine glasses since we had ordered a bootle.  I went back down there Friday for lunch and the bar tender was fantastic, Ivan, I think.  Was very nice and was able to make many suggestions about what to do in Dallas  since I was left still wondering.I do wish I would have had time to see the facilities, which I think would possibly have made a change in my opinion of the area, but I don't know that we would stay here again unless it was specifically for something in Frisco.  I imagine the little town area is going to be amazing, but we were about a week too early. There are still several restaurants that aren't opened yet and other than a Lincoln dealership and The Star, I'm not sure what else you would travel there for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r529606285-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>529606285</t>
+  </si>
+  <si>
+    <t>Omni and Cowboys, nothing better</t>
+  </si>
+  <si>
+    <t>Big Dallas Cowboy Fan so this was an ideal hotel to stay for me. Was visiting family and stayed at this beautiful, new hotel. Everyone was friendly and hotel is very clean. To be expected from a new hotel. Not much around the area since it is still being built up but soon it will be a small city in the city. My new go to place.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Big Dallas Cowboy Fan so this was an ideal hotel to stay for me. Was visiting family and stayed at this beautiful, new hotel. Everyone was friendly and hotel is very clean. To be expected from a new hotel. Not much around the area since it is still being built up but soon it will be a small city in the city. My new go to place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r529209460-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>529209460</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>With the rich and famous</t>
+  </si>
+  <si>
+    <t>By now you know this connects to the Dallas Cowboys headquarters, so you’ll find a cowboys theme throughout.  The first visit to Omni at Neighborhood Services was in late July, we stopped in after a group tour of The Star at Ford Center.  At that time the concessions were not open, so we were just in time for the Omni soft opening.  Food was awesome at the restaurant, service was slow.  I think this was because it was “new” and the staff was getting their feel of the place.  Everyone we encountered was very professional and pleasant.  
+The second visit to was better than the first!  Our holiday party will be held at the Omni Frisco this year, so a couple of us were invited to the hotel grand opening.  And guess who was there?!  The Cowboys owner himself.  I’d like to think the hotel staff catered to us, but I’m certain they put on an excellent display because of their partnership with The Star.  It was “tailgate chic” themed, with a very smart set up on the field.  It was roped off for privacy while we snapped pictures with the cowboy cheerleaders and ate hors d’oeuvres under the crisp Frisco sky.  The night was beautiful, as if Omni set it up that way.   I can say for other events, there are pretentious guests with inattentive staff, but none of that was immanent this night.  The staff was so gracious...By now you know this connects to the Dallas Cowboys headquarters, so you’ll find a cowboys theme throughout.  The first visit to Omni at Neighborhood Services was in late July, we stopped in after a group tour of The Star at Ford Center.  At that time the concessions were not open, so we were just in time for the Omni soft opening.  Food was awesome at the restaurant, service was slow.  I think this was because it was “new” and the staff was getting their feel of the place.  Everyone we encountered was very professional and pleasant.  The second visit to was better than the first!  Our holiday party will be held at the Omni Frisco this year, so a couple of us were invited to the hotel grand opening.  And guess who was there?!  The Cowboys owner himself.  I’d like to think the hotel staff catered to us, but I’m certain they put on an excellent display because of their partnership with The Star.  It was “tailgate chic” themed, with a very smart set up on the field.  It was roped off for privacy while we snapped pictures with the cowboy cheerleaders and ate hors d’oeuvres under the crisp Frisco sky.  The night was beautiful, as if Omni set it up that way.   I can say for other events, there are pretentious guests with inattentive staff, but none of that was immanent this night.  The staff was so gracious and accommodating.   Without making this review too long, we headed up to the 4th floor and out to the pool desk, where Neighborhood Services set up a huge spread.  Each carving station looked better than the last, some cuisine I didn’t recognize.  There was stage area with a band, tables with a view, a DJ and light show… all leading up to a toast from Jerry Jones, Emmitt Smith and the hotel management.  Job - well - done!  I can’t wait to see what’s on the menu for December. ;)Not so great moments:Lone star valet – The guy who brought my car was so tall and so nervous.  He forgot to put my car in park before getting out, he also spilled water in my seat but I didn’t see a water bottle in his hand.  Poor guy, he said thank you for a saving him since there was a Lexus I think in front of me, I yelled, he stopped before rolling into it.  I still tipped him (when I got home, I noticed his knee kicked in my headlight knob). :|MirMir – Black and white photos? The machine kept malfunctioning so we didn’t get out prints, but thank you so much for the link to email!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>By now you know this connects to the Dallas Cowboys headquarters, so you’ll find a cowboys theme throughout.  The first visit to Omni at Neighborhood Services was in late July, we stopped in after a group tour of The Star at Ford Center.  At that time the concessions were not open, so we were just in time for the Omni soft opening.  Food was awesome at the restaurant, service was slow.  I think this was because it was “new” and the staff was getting their feel of the place.  Everyone we encountered was very professional and pleasant.  
+The second visit to was better than the first!  Our holiday party will be held at the Omni Frisco this year, so a couple of us were invited to the hotel grand opening.  And guess who was there?!  The Cowboys owner himself.  I’d like to think the hotel staff catered to us, but I’m certain they put on an excellent display because of their partnership with The Star.  It was “tailgate chic” themed, with a very smart set up on the field.  It was roped off for privacy while we snapped pictures with the cowboy cheerleaders and ate hors d’oeuvres under the crisp Frisco sky.  The night was beautiful, as if Omni set it up that way.   I can say for other events, there are pretentious guests with inattentive staff, but none of that was immanent this night.  The staff was so gracious...By now you know this connects to the Dallas Cowboys headquarters, so you’ll find a cowboys theme throughout.  The first visit to Omni at Neighborhood Services was in late July, we stopped in after a group tour of The Star at Ford Center.  At that time the concessions were not open, so we were just in time for the Omni soft opening.  Food was awesome at the restaurant, service was slow.  I think this was because it was “new” and the staff was getting their feel of the place.  Everyone we encountered was very professional and pleasant.  The second visit to was better than the first!  Our holiday party will be held at the Omni Frisco this year, so a couple of us were invited to the hotel grand opening.  And guess who was there?!  The Cowboys owner himself.  I’d like to think the hotel staff catered to us, but I’m certain they put on an excellent display because of their partnership with The Star.  It was “tailgate chic” themed, with a very smart set up on the field.  It was roped off for privacy while we snapped pictures with the cowboy cheerleaders and ate hors d’oeuvres under the crisp Frisco sky.  The night was beautiful, as if Omni set it up that way.   I can say for other events, there are pretentious guests with inattentive staff, but none of that was immanent this night.  The staff was so gracious and accommodating.   Without making this review too long, we headed up to the 4th floor and out to the pool desk, where Neighborhood Services set up a huge spread.  Each carving station looked better than the last, some cuisine I didn’t recognize.  There was stage area with a band, tables with a view, a DJ and light show… all leading up to a toast from Jerry Jones, Emmitt Smith and the hotel management.  Job - well - done!  I can’t wait to see what’s on the menu for December. ;)Not so great moments:Lone star valet – The guy who brought my car was so tall and so nervous.  He forgot to put my car in park before getting out, he also spilled water in my seat but I didn’t see a water bottle in his hand.  Poor guy, he said thank you for a saving him since there was a Lexus I think in front of me, I yelled, he stopped before rolling into it.  I still tipped him (when I got home, I noticed his knee kicked in my headlight knob). :|MirMir – Black and white photos? The machine kept malfunctioning so we didn’t get out prints, but thank you so much for the link to email!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r524494893-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>524494893</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Gift</t>
+  </si>
+  <si>
+    <t>This was a gift for my husbands birthday. It was the opening game against the Giants.Love the hotel 5 star all the way. The room even had the NFL ticket in the room. The best part is we got that W.19-3 DC4LMoreShow less</t>
+  </si>
+  <si>
+    <t>Jo Anne D, Guest Relations Manager at Omni Frisco Hotel, responded to this reviewResponded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2017</t>
+  </si>
+  <si>
+    <t>This was a gift for my husbands birthday. It was the opening game against the Giants.Love the hotel 5 star all the way. The room even had the NFL ticket in the room. The best part is we got that W.19-3 DC4LMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r523195305-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>523195305</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>Really Love This Hotel</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for my birthday.  The service everywhere was excellent. We did online check-in so our keys were waiting at the front desk when we arrived.  There was a piece of birthday cake in the room.  So nice!  The rooms are perfect. Our room overlooked The Star and the Cowboys practice field as well as a view of the pool.  We ate dinner and breakfast at Neighborhood Services restaurant, but what we had was not remarkable.  It was average at best.  We loved the hotel and will definitely stay in the hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for my birthday.  The service everywhere was excellent. We did online check-in so our keys were waiting at the front desk when we arrived.  There was a piece of birthday cake in the room.  So nice!  The rooms are perfect. Our room overlooked The Star and the Cowboys practice field as well as a view of the pool.  We ate dinner and breakfast at Neighborhood Services restaurant, but what we had was not remarkable.  It was average at best.  We loved the hotel and will definitely stay in the hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r521191349-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>521191349</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>Dallas Cowboy Fan's Dream Hotel</t>
+  </si>
+  <si>
+    <t>My husband and I spent our 23rd anniversary at the Omni Frisco and the concept is amazing! Their collaboration with the Dallas Cowboys has truly made this hotel a fan's dream. The hotel sits right on the property of the Dallas Cowboys' headquarters. Walk out the hotel doors and you'll step onto a turf field open to the public. Seeing kids and adults throwing footballs below a jumbo TV screen that lights up the turf field was a sight to see! There are several restaurants within walking distance and lots of Dallas Cowboy history to see. You never know who might pass by! The rooms in the hotel are modern and we loved the touch of mixing modern design with football art. The throw across the bed even featured the Star symbol of the Dallas Cowboys. The staff was very friendly as well. If you are looking for a special place to stay, this is your place! MoreShow less</t>
+  </si>
+  <si>
+    <t>Jo Anne D, Manager at Omni Frisco Hotel, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I spent our 23rd anniversary at the Omni Frisco and the concept is amazing! Their collaboration with the Dallas Cowboys has truly made this hotel a fan's dream. The hotel sits right on the property of the Dallas Cowboys' headquarters. Walk out the hotel doors and you'll step onto a turf field open to the public. Seeing kids and adults throwing footballs below a jumbo TV screen that lights up the turf field was a sight to see! There are several restaurants within walking distance and lots of Dallas Cowboy history to see. You never know who might pass by! The rooms in the hotel are modern and we loved the touch of mixing modern design with football art. The throw across the bed even featured the Star symbol of the Dallas Cowboys. The staff was very friendly as well. If you are looking for a special place to stay, this is your place! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r513366816-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>513366816</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Not too shabby</t>
+  </si>
+  <si>
+    <t>The hotel staff could not have been nicer. Only complaints are the bedroom area of the room could have bigger instead of using so much space on the restroom. Also, the A/C was VERY loud even when turned on low. Nice view although will look better once the area is completed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jo Anne D, Guest Relations Manager at Omni Frisco Hotel, responded to this reviewResponded August 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2017</t>
+  </si>
+  <si>
+    <t>The hotel staff could not have been nicer. Only complaints are the bedroom area of the room could have bigger instead of using so much space on the restroom. Also, the A/C was VERY loud even when turned on low. Nice view although will look better once the area is completed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r510783186-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>510783186</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>2017 Team Meeting</t>
+  </si>
+  <si>
+    <t>The hotel had only been open for 19 days.  Staff is welcoming and friendly.  Rooms are beautiful. Still smells new. Comfy beds, lots of pillows.  Large bathroom with pocket door, tiled shower.  Fourth floor outdoor pool with bar.  Great restaurant and wine bar.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Jo Anne D, Guest Relations Manager at Omni Frisco Hotel, responded to this reviewResponded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>The hotel had only been open for 19 days.  Staff is welcoming and friendly.  Rooms are beautiful. Still smells new. Comfy beds, lots of pillows.  Large bathroom with pocket door, tiled shower.  Fourth floor outdoor pool with bar.  Great restaurant and wine bar.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r508836761-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>508836761</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>My Favorite Hotel Stay Ever!</t>
+  </si>
+  <si>
+    <t>Out of 2000 hotel nights in the past 18 years, the Omni Frisco Hotel is my new favorite. The hotel had been open for about 7 days when we stayed there after attending the very first concert at the Ford Center next door. From the moment we arrived, everyone was incredibly welcoming and helpful. The hotel itself was beautiful and clean. We had a corner suite on the 6th floor overlooking the Ford Center courtyard. The room was very nice, the bed was awesome, the bathroom was incredible with a large shower and a modern standalone tub with a floor to ceiling window looking south. The shower drain consisted of 2 nearly imperceptible slits in the floor tile. I've seen similar rectangular drains, but none quite as stealthy! My wife loved the tub, and pretty much everything about the bathroom... and the entire suite for that matter. There were only a few items that we didn't like. The air conditioner fan was a bit loud even on the lowest speed. Also, in the middle of the night the motion-sensing bathroom lights turned on by themselves, which woke us up twice before I decided to close the pocket door. Lastly, the living area seemed cramped. The TV was mounted to the wall, as there would have been no room for a piece of furniture for it to stand upon. It's a brand new hotel, so one would expect a few opportunities...Out of 2000 hotel nights in the past 18 years, the Omni Frisco Hotel is my new favorite. The hotel had been open for about 7 days when we stayed there after attending the very first concert at the Ford Center next door. From the moment we arrived, everyone was incredibly welcoming and helpful. The hotel itself was beautiful and clean. We had a corner suite on the 6th floor overlooking the Ford Center courtyard. The room was very nice, the bed was awesome, the bathroom was incredible with a large shower and a modern standalone tub with a floor to ceiling window looking south. The shower drain consisted of 2 nearly imperceptible slits in the floor tile. I've seen similar rectangular drains, but none quite as stealthy! My wife loved the tub, and pretty much everything about the bathroom... and the entire suite for that matter. There were only a few items that we didn't like. The air conditioner fan was a bit loud even on the lowest speed. Also, in the middle of the night the motion-sensing bathroom lights turned on by themselves, which woke us up twice before I decided to close the pocket door. Lastly, the living area seemed cramped. The TV was mounted to the wall, as there would have been no room for a piece of furniture for it to stand upon. It's a brand new hotel, so one would expect a few opportunities for improvement. Overall, it was a wonderful experience punctuated by the incredible service received by each and every member of the hotel staff that we encountered. Their enthusiasm and professionalism was refreshing! I highly recommend it!MoreShow less</t>
+  </si>
+  <si>
+    <t>Out of 2000 hotel nights in the past 18 years, the Omni Frisco Hotel is my new favorite. The hotel had been open for about 7 days when we stayed there after attending the very first concert at the Ford Center next door. From the moment we arrived, everyone was incredibly welcoming and helpful. The hotel itself was beautiful and clean. We had a corner suite on the 6th floor overlooking the Ford Center courtyard. The room was very nice, the bed was awesome, the bathroom was incredible with a large shower and a modern standalone tub with a floor to ceiling window looking south. The shower drain consisted of 2 nearly imperceptible slits in the floor tile. I've seen similar rectangular drains, but none quite as stealthy! My wife loved the tub, and pretty much everything about the bathroom... and the entire suite for that matter. There were only a few items that we didn't like. The air conditioner fan was a bit loud even on the lowest speed. Also, in the middle of the night the motion-sensing bathroom lights turned on by themselves, which woke us up twice before I decided to close the pocket door. Lastly, the living area seemed cramped. The TV was mounted to the wall, as there would have been no room for a piece of furniture for it to stand upon. It's a brand new hotel, so one would expect a few opportunities...Out of 2000 hotel nights in the past 18 years, the Omni Frisco Hotel is my new favorite. The hotel had been open for about 7 days when we stayed there after attending the very first concert at the Ford Center next door. From the moment we arrived, everyone was incredibly welcoming and helpful. The hotel itself was beautiful and clean. We had a corner suite on the 6th floor overlooking the Ford Center courtyard. The room was very nice, the bed was awesome, the bathroom was incredible with a large shower and a modern standalone tub with a floor to ceiling window looking south. The shower drain consisted of 2 nearly imperceptible slits in the floor tile. I've seen similar rectangular drains, but none quite as stealthy! My wife loved the tub, and pretty much everything about the bathroom... and the entire suite for that matter. There were only a few items that we didn't like. The air conditioner fan was a bit loud even on the lowest speed. Also, in the middle of the night the motion-sensing bathroom lights turned on by themselves, which woke us up twice before I decided to close the pocket door. Lastly, the living area seemed cramped. The TV was mounted to the wall, as there would have been no room for a piece of furniture for it to stand upon. It's a brand new hotel, so one would expect a few opportunities for improvement. Overall, it was a wonderful experience punctuated by the incredible service received by each and every member of the hotel staff that we encountered. Their enthusiasm and professionalism was refreshing! I highly recommend it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r506740839-Omni_Frisco_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>506740839</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t>My daughter lives in Frisco close to The Star so my wife and I decided to drive from Louisiana to visit her. We chose the Omni Hotel because of it's nearness to her home. I paid $264 a night for a "executive room" with the bed and breakfast package, a total of nearly $600 for the weekend. This is the first week of the Omni's grand opening and everything is new and clean and shiny, and the hotel staff is very professional and courteous.  My problems are with the rooms and over pricing. The "executive room" is nothing more than a king bed size room with no microwave, a tiny shoe box frig, and a air conditioner vent that roars like Niagara Falls even at the lowest setting.  We had to be moved to a different room because the bath tub faced a large window whose blinds were forgotten to be installed.  In the second room we were greeted by the roaring air conditioner.  We found empty bar soap packaging with no soap inside, and the bare minimum of other toiletries.  But what hurts the most is the gross over pricing.  Since the Omni is in the middle of the still-being-built Dallas Cowboys Star Complex you are paying for location nothing more. We have stayed in the 5 star Chosun Hotel in downtown Seoul, Korea for less and received much more. I can't help but feel sick to my stomach...My daughter lives in Frisco close to The Star so my wife and I decided to drive from Louisiana to visit her. We chose the Omni Hotel because of it's nearness to her home. I paid $264 a night for a "executive room" with the bed and breakfast package, a total of nearly $600 for the weekend. This is the first week of the Omni's grand opening and everything is new and clean and shiny, and the hotel staff is very professional and courteous.  My problems are with the rooms and over pricing. The "executive room" is nothing more than a king bed size room with no microwave, a tiny shoe box frig, and a air conditioner vent that roars like Niagara Falls even at the lowest setting.  We had to be moved to a different room because the bath tub faced a large window whose blinds were forgotten to be installed.  In the second room we were greeted by the roaring air conditioner.  We found empty bar soap packaging with no soap inside, and the bare minimum of other toiletries.  But what hurts the most is the gross over pricing.  Since the Omni is in the middle of the still-being-built Dallas Cowboys Star Complex you are paying for location nothing more. We have stayed in the 5 star Chosun Hotel in downtown Seoul, Korea for less and received much more. I can't help but feel sick to my stomach when I think of the $600 I squandered on this "luxury" hotel.  It will not happen again.  Perhaps they need to look up the definition of "luxury".MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Jo Anne D, Guest Relations Manager at Omni Frisco Hotel, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>My daughter lives in Frisco close to The Star so my wife and I decided to drive from Louisiana to visit her. We chose the Omni Hotel because of it's nearness to her home. I paid $264 a night for a "executive room" with the bed and breakfast package, a total of nearly $600 for the weekend. This is the first week of the Omni's grand opening and everything is new and clean and shiny, and the hotel staff is very professional and courteous.  My problems are with the rooms and over pricing. The "executive room" is nothing more than a king bed size room with no microwave, a tiny shoe box frig, and a air conditioner vent that roars like Niagara Falls even at the lowest setting.  We had to be moved to a different room because the bath tub faced a large window whose blinds were forgotten to be installed.  In the second room we were greeted by the roaring air conditioner.  We found empty bar soap packaging with no soap inside, and the bare minimum of other toiletries.  But what hurts the most is the gross over pricing.  Since the Omni is in the middle of the still-being-built Dallas Cowboys Star Complex you are paying for location nothing more. We have stayed in the 5 star Chosun Hotel in downtown Seoul, Korea for less and received much more. I can't help but feel sick to my stomach...My daughter lives in Frisco close to The Star so my wife and I decided to drive from Louisiana to visit her. We chose the Omni Hotel because of it's nearness to her home. I paid $264 a night for a "executive room" with the bed and breakfast package, a total of nearly $600 for the weekend. This is the first week of the Omni's grand opening and everything is new and clean and shiny, and the hotel staff is very professional and courteous.  My problems are with the rooms and over pricing. The "executive room" is nothing more than a king bed size room with no microwave, a tiny shoe box frig, and a air conditioner vent that roars like Niagara Falls even at the lowest setting.  We had to be moved to a different room because the bath tub faced a large window whose blinds were forgotten to be installed.  In the second room we were greeted by the roaring air conditioner.  We found empty bar soap packaging with no soap inside, and the bare minimum of other toiletries.  But what hurts the most is the gross over pricing.  Since the Omni is in the middle of the still-being-built Dallas Cowboys Star Complex you are paying for location nothing more. We have stayed in the 5 star Chosun Hotel in downtown Seoul, Korea for less and received much more. I can't help but feel sick to my stomach when I think of the $600 I squandered on this "luxury" hotel.  It will not happen again.  Perhaps they need to look up the definition of "luxury".More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1572,2761 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>82</v>
+      </c>
+      <c r="X7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>82</v>
+      </c>
+      <c r="X8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>82</v>
+      </c>
+      <c r="X9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>82</v>
+      </c>
+      <c r="X10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>110</v>
+      </c>
+      <c r="X11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>110</v>
+      </c>
+      <c r="X12" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>82</v>
+      </c>
+      <c r="X13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>140</v>
+      </c>
+      <c r="X16" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>148</v>
+      </c>
+      <c r="X17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>157</v>
+      </c>
+      <c r="X18" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>165</v>
+      </c>
+      <c r="X19" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>174</v>
+      </c>
+      <c r="X20" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>174</v>
+      </c>
+      <c r="X21" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>188</v>
+      </c>
+      <c r="X22" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s">
+        <v>194</v>
+      </c>
+      <c r="L23" t="s">
+        <v>195</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>173</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>188</v>
+      </c>
+      <c r="X23" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" t="s">
+        <v>200</v>
+      </c>
+      <c r="L24" t="s">
+        <v>201</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>173</v>
+      </c>
+      <c r="O24" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>188</v>
+      </c>
+      <c r="X24" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>204</v>
+      </c>
+      <c r="J25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>208</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" t="s">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" t="s">
+        <v>214</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>156</v>
+      </c>
+      <c r="O26" t="s">
+        <v>81</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>215</v>
+      </c>
+      <c r="X26" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J27" t="s">
+        <v>220</v>
+      </c>
+      <c r="K27" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" t="s">
+        <v>222</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>156</v>
+      </c>
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>225</v>
+      </c>
+      <c r="J28" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" t="s">
+        <v>227</v>
+      </c>
+      <c r="L28" t="s">
+        <v>228</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>156</v>
+      </c>
+      <c r="O28" t="s">
+        <v>91</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>229</v>
+      </c>
+      <c r="X28" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>233</v>
+      </c>
+      <c r="J29" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" t="s">
+        <v>236</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>237</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>238</v>
+      </c>
+      <c r="X29" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>242</v>
+      </c>
+      <c r="J30" t="s">
+        <v>243</v>
+      </c>
+      <c r="K30" t="s">
+        <v>244</v>
+      </c>
+      <c r="L30" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>238</v>
+      </c>
+      <c r="X30" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>248</v>
+      </c>
+      <c r="J31" t="s">
+        <v>249</v>
+      </c>
+      <c r="K31" t="s">
+        <v>250</v>
+      </c>
+      <c r="L31" t="s">
+        <v>251</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>252</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>255</v>
+      </c>
+      <c r="J32" t="s">
+        <v>256</v>
+      </c>
+      <c r="K32" t="s">
+        <v>257</v>
+      </c>
+      <c r="L32" t="s">
+        <v>258</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>252</v>
+      </c>
+      <c r="O32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>238</v>
+      </c>
+      <c r="X32" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>260</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>261</v>
+      </c>
+      <c r="J33" t="s">
+        <v>262</v>
+      </c>
+      <c r="K33" t="s">
+        <v>263</v>
+      </c>
+      <c r="L33" t="s">
+        <v>264</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>252</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>265</v>
+      </c>
+      <c r="X33" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>268</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J34" t="s">
+        <v>270</v>
+      </c>
+      <c r="K34" t="s">
+        <v>271</v>
+      </c>
+      <c r="L34" t="s">
+        <v>272</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>252</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>273</v>
+      </c>
+      <c r="X34" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>278</v>
+      </c>
+      <c r="K35" t="s">
+        <v>279</v>
+      </c>
+      <c r="L35" t="s">
+        <v>280</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>252</v>
+      </c>
+      <c r="O35" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>281</v>
+      </c>
+      <c r="X35" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>284</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>285</v>
+      </c>
+      <c r="J36" t="s">
+        <v>278</v>
+      </c>
+      <c r="K36" t="s">
+        <v>286</v>
+      </c>
+      <c r="L36" t="s">
+        <v>287</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>288</v>
+      </c>
+      <c r="O36" t="s">
+        <v>81</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>281</v>
+      </c>
+      <c r="X36" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>290</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>291</v>
+      </c>
+      <c r="J37" t="s">
+        <v>292</v>
+      </c>
+      <c r="K37" t="s">
+        <v>293</v>
+      </c>
+      <c r="L37" t="s">
+        <v>294</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>295</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>281</v>
+      </c>
+      <c r="X37" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>297</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>298</v>
+      </c>
+      <c r="J38" t="s">
+        <v>299</v>
+      </c>
+      <c r="K38" t="s">
+        <v>300</v>
+      </c>
+      <c r="L38" t="s">
+        <v>301</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>295</v>
+      </c>
+      <c r="O38" t="s">
+        <v>69</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>302</v>
+      </c>
+      <c r="X38" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>306</v>
+      </c>
+      <c r="J39" t="s">
+        <v>307</v>
+      </c>
+      <c r="K39" t="s">
+        <v>308</v>
+      </c>
+      <c r="L39" t="s">
+        <v>309</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>295</v>
+      </c>
+      <c r="O39" t="s">
+        <v>91</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>302</v>
+      </c>
+      <c r="X39" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>311</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>312</v>
+      </c>
+      <c r="J40" t="s">
+        <v>313</v>
+      </c>
+      <c r="K40" t="s">
+        <v>314</v>
+      </c>
+      <c r="L40" t="s">
+        <v>315</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>295</v>
+      </c>
+      <c r="O40" t="s">
+        <v>91</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>316</v>
+      </c>
+      <c r="X40" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>319</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>320</v>
+      </c>
+      <c r="J41" t="s">
+        <v>321</v>
+      </c>
+      <c r="K41" t="s">
+        <v>322</v>
+      </c>
+      <c r="L41" t="s">
+        <v>323</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>324</v>
+      </c>
+      <c r="X41" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>327</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>328</v>
+      </c>
+      <c r="J42" t="s">
+        <v>329</v>
+      </c>
+      <c r="K42" t="s">
+        <v>330</v>
+      </c>
+      <c r="L42" t="s">
+        <v>331</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>288</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>332</v>
+      </c>
+      <c r="X42" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>335</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>336</v>
+      </c>
+      <c r="J43" t="s">
+        <v>337</v>
+      </c>
+      <c r="K43" t="s">
+        <v>338</v>
+      </c>
+      <c r="L43" t="s">
+        <v>339</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>288</v>
+      </c>
+      <c r="O43" t="s">
+        <v>91</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>332</v>
+      </c>
+      <c r="X43" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>66457</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>341</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>342</v>
+      </c>
+      <c r="J44" t="s">
+        <v>343</v>
+      </c>
+      <c r="K44" t="s">
+        <v>344</v>
+      </c>
+      <c r="L44" t="s">
+        <v>345</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>346</v>
+      </c>
+      <c r="O44" t="s">
+        <v>81</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>347</v>
+      </c>
+      <c r="X44" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>349</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_607.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_607.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="392">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>216nidhis</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>totandpud</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r587089267-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>cindyrB1873AY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r587089264-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -210,6 +219,9 @@
     <t>We used The Omni Frisco to host a group of business associates at our headquarters.  Everyone in our group was thrilled with their stay.  The hotel alone is great but the access to The Star and other restaurants in walking distance took it to another level.   The rooms were well appointed and extremely comfortable.  The staff was friendly, helpful and efficient.  Would highly recommend for your next business or pleasure trip in the area.</t>
   </si>
   <si>
+    <t>Susan M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r586184757-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -228,6 +240,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>MLEEUNDERWOOD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r586051335-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -246,6 +261,9 @@
     <t>I came here just for one night in June to attend a conference.  I was expecting it to be very nice as it was brand new and the website made me expect it to be pretty awesome.  I was not disappointed.  The service was great, the hotel is beautiful, the rooms are well appointed, clean and well organized.  The TV on the wall is massive!  It has to be the biggest TV I have seen in a standard hotel room.  The bathroom is very nice and large.  All in all, I've only been to Frisco, TX this one time, but this has to be the best hotel in town.  Also, this is attached to the Cowboys new training facility, which deserves a great review in its own right.More</t>
   </si>
   <si>
+    <t>Karen T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r585230505-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t>Great valet, bellboys and front desk make a great first impression at this hotel with a fun location next door to Ford Center in Frisco.  All makes for a fun stay.  And the hotel is "pet friendly," albeit for a steep pet free, even when no damage is caused.More</t>
   </si>
   <si>
+    <t>randallb548</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r584260637-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>The location of our room was overlooking pool and front of Ford Center. if we stay again would love the same room.  We enjoyed biking in the adjoining  area. Hotel staff stored our bikes for us which was a great help.More</t>
   </si>
   <si>
+    <t>germatt2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r583211234-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -315,6 +339,9 @@
     <t>I have nothing but praise for the hotel, the staff, the service, etc.  Even the fact that I’m not a football fan didn’t tarnish the stay.  The rooms are great and there are plenty of options for food nearby.  There is a nearby shopping district that is a short ride from the hotel. More</t>
   </si>
   <si>
+    <t>andreagG4351NY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r584260666-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -333,6 +360,9 @@
     <t>I've stayed at a lot of "brand" hotels and this experience was by far one of the best.  The quality of the service, rooms and staff were exceptional.   Location was beside the Dallas Cowboys training facility. Great 4th floor infinity pool as well with access to 17 restaurants in the areaMore</t>
   </si>
   <si>
+    <t>audreya43</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r580228548-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -357,6 +387,9 @@
     <t>My husband and son treated me to a weekend at the Omni Frisco for Mother's Day weekend 2018. It was fantastic! The room had a view of the Dallas Cowboys practice facility that was out of sight! We were on the 15th floor and could see just about everything. It was a great stay. Staff was warm and accommodating. Rooms are nice, cozy and clean.More</t>
   </si>
   <si>
+    <t>McFerrid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r580226613-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -372,6 +405,9 @@
     <t>Having The Star next-door and from my room I can see the complex. Beautiful hotel room and beautiful hotel. Only one year old.  Love the bathrooms, meeting space and lobby area.  Much to do when walking outside and a great location for a business meeting.More</t>
   </si>
   <si>
+    <t>michelew26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r584260677-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -390,6 +426,9 @@
     <t>This hotel and the surrounding area was a terrific experience for this Dallas Cowboys fan.  great view from the hotel of the new practice facility and terrific restaurants and shopping within walking distance.More</t>
   </si>
   <si>
+    <t>deborahbG8344HU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r584260704-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -405,6 +444,9 @@
     <t>Stayed at Omni Frisco on business trip.  Very clean and excellent staff.  Dallas Cowboys cheerleaders were having an event .. made it interesting ..  everything within walking distance .   Great location! I would recommend Omni Frisco</t>
   </si>
   <si>
+    <t>drewh385</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r584260703-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -423,6 +465,9 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>Jack H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r578401985-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -447,6 +492,9 @@
     <t>Enjoyed my stay in this brand new Omni property. Staff was excellent. Meeting facilities are beautiful. Located in the new Cowboys complex area. Lots of new restaurants too. Andreas at the front desk was awesome.More</t>
   </si>
   <si>
+    <t>Tanline691</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r576962786-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -471,6 +519,9 @@
     <t>I was there for a conference and had more than a suitcase to carry.  I was immediately greeted by the bellboys outside and they took my stuff directly to the conference room and placed it by the correct table.  The views were amazing overlooking ford field from the pool balcony during a meet and greet reception. The rooms were top notch with a huge bathroom and comfortable bed.  When the conference was over, the bellboys came and took my box to the concierge desk for me.  I love it I had no worries.  The food at the conference was hot on the buffet line (most of the time, food is luke warm on buffet lines).  Every staff member greeted me with a smile and hello, unlike some other hotels.  I hope to be back here again for another conference.More</t>
   </si>
   <si>
+    <t>eae777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r571930680-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -498,6 +549,9 @@
     <t>hotel offers wonderful restaurant /bar/beautiful gift shop with unique itemswalk to take a tour of the Star Dallas Cowboys training center///so many restaurants within a minutes walk/down the street Texas sculpture gardenMore</t>
   </si>
   <si>
+    <t>ddmullis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r570272396-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -522,6 +576,9 @@
     <t>I recently attended a work conference at this hotel and it was a top-notch experience.  The hotel is new, spacious and in the middle of Frisco Texas next to the Dallas Cowboys practice facility. The conference facilities weeks top notch. The rooms were well lot, the audio and video was excellent quality. The conference food was 5 star.  The staff went above and beyond to endure guest satisfaction There is plenty of free parking near the hotelMore</t>
   </si>
   <si>
+    <t>Carmen L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r566866426-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -564,6 +621,9 @@
     <t>Stayed here with family and the room was lovely. The bed was super comfortable and I really wanted to take home the Cowboys throw blanket, lol. However, when we entered the room there was toilet paper in the toilet and the toilet paper roll was not folded as is customary after a room is cleaned. I informed the front desk and they apologized and said they would speak with the cleaning staff but did not send someone to ensure it was cleaned or offer a discount off our stay for the trouble. I found that odd. Also, the showers only have half doors which aesthetically looks nice but when taking a shower the water gets all outside of the tub which makes a big unnecessary mess. The area is nice, the hotel is aesthetically pleasing, and I really wanted to try the gym but unfortunately our time was limited. More</t>
   </si>
   <si>
+    <t>Mike M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r565942648-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -591,6 +651,9 @@
     <t>We recently had a team meeting at this hotel. Accommodations were great.  Lunch for 200 was terrific. AV and support was great. Rooms are very nice. Fitness center was good.  About a 20 minute ride from airport. Great views of cowboys practice facility.  More</t>
   </si>
   <si>
+    <t>kinglima</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r563600369-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -609,6 +672,9 @@
     <t>Manager and Her team are excellent. Restaurant for Breakfast was excellent.Gym is very appealing. The convention Center service is very good and they have packed individual snacks, looks and is clean More</t>
   </si>
   <si>
+    <t>01Feedback</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r562686182-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -627,6 +693,9 @@
     <t>Great Getting always for COWBOYS FANS at Star. Hotel all about cowboys thought out this beautiful Hotel with great Restaurants other entertainment all around Hotel. Hotel has Rooftop pool and outdoor restaurant.More</t>
   </si>
   <si>
+    <t>Ronald E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r555871795-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -648,6 +717,9 @@
     <t>Hotel is brand new and looks great at first sight. I will be here for four days and I am utterly disappointed just with one day. Room service is one of the worst I have seen anywhere. Service takes about an hour. I ordered an omelette with a couple of vegetables and after the long wait, they bring me an omelette that includes sausage and cheddar cheese. They seem to be able only to prepare the limited items they have on the room service menu. Any special order is treated with a certain disdain. They forget to bring a Fuji water I had ordered and most importantly, the bread for the omelette. I called again for the missing items and it took a while. Called again to see the status of the delivery of the missing items, and they tell me they are coming. Finally it came but not a word of apology. Of course, I ate cold  food. Then I see there is no internet connection and I call guest services but they ask me to call an outside provider. After detailed instructions to bypass the hotel internet registration page, the problem is corrected but just for a single device (my work computer which blocks many pages). I would need to call back to get access to other devices (hopefully). The Tv as mentioned by other reviewers is on the wall, impossible to connect any device for watching Netflix....Hotel is brand new and looks great at first sight. I will be here for four days and I am utterly disappointed just with one day. Room service is one of the worst I have seen anywhere. Service takes about an hour. I ordered an omelette with a couple of vegetables and after the long wait, they bring me an omelette that includes sausage and cheddar cheese. They seem to be able only to prepare the limited items they have on the room service menu. Any special order is treated with a certain disdain. They forget to bring a Fuji water I had ordered and most importantly, the bread for the omelette. I called again for the missing items and it took a while. Called again to see the status of the delivery of the missing items, and they tell me they are coming. Finally it came but not a word of apology. Of course, I ate cold  food. Then I see there is no internet connection and I call guest services but they ask me to call an outside provider. After detailed instructions to bypass the hotel internet registration page, the problem is corrected but just for a single device (my work computer which blocks many pages). I would need to call back to get access to other devices (hopefully). The Tv as mentioned by other reviewers is on the wall, impossible to connect any device for watching Netflix. They offer chrome cast on the Tv but if internet does not work, forget about it. This is just after 12 hours in the hotel. Bear in mind that the hotel is in the middle of nowhere, no restaurants or convenience stores anywhere near. I have a construction site as room view. The room is nicely decorated and the bed is comfortable. Check in was also courteous and swift as well as the concierge person who was very nice. Hopefully they will correct some of the issues I have identified.More</t>
   </si>
   <si>
+    <t>UTBlonde0427</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r552123324-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -672,6 +744,9 @@
     <t>We went up to Dallas to see the Cowboys Christmas show and do some things in Frisco and in Dallas. My husband is a huge Cowboys fan, so he’d been dying to stay here. The hotel was lovely. The Cowboys touches are very subtle. The staff was friendly and helpful, the rooms were clean, and housekeeping was great. My only complaint is that both nights the facility at the Star turned on the giant video board at 1am, complete with loud music, flashing lights and lots of noise. It woke us up both nights even with the curtains closed. Friday night they offered us free breakfast. Then it happened again Saturday night. We paid more to stay on the side with a view of the Star, so we essentially paid more to get less rest. I really feel like we should’ve been comped a night for the inconvenience, given that both my small children were awakened, as were my husband and I. No one offered, perhaps I should’ve made a big stink, but that’s just not my style. I don’t know if we’ll be back. Their restaurant is also not child friendly.... no kids menu. More</t>
   </si>
   <si>
+    <t>TheRealPublius</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r548497375-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -690,6 +765,9 @@
     <t>This was my first time to stay and an Omni property and all I can say is "wow." This is a beautiful property in the heart of a bastion of Dallas Cowboy land. Front desk was friendly and check in was quick. While we were out, a small, unexpected gift was delivered to our room (I won't tell you what, to save the surprise for you). A/C was awesome, the view was amazing, and the room was nicely put together. The bed was very comfortable. A very large, flat screen television with plenty of channels was in the room. The hotel's bar may not have been as well stocked as other places, but there were enough choices for a nightcap. I also want to point out that the valet service was efficient and polite, and when we left, they provided us with a nice surprise, too. I will definitely have this property on my list to visit again. You should, too.More</t>
   </si>
   <si>
+    <t>Weaton13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r546809843-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -714,6 +792,9 @@
     <t>We had a short one night stay here for a company business party. The hotel is clean, modern, with a very friendly and helpful staff. The Christmas decorations inside and out were beautiful. There are very minimal subtle Cowboy touches to each room for those not Cowboy’s fans. More</t>
   </si>
   <si>
+    <t>hellogoodbye_7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r540532097-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -741,6 +822,9 @@
     <t>Stayed here one night for business.  The hotel is right in the middle of all the Cowboys action.  Check in was efficient and staff were friendly.   Bar service was slow and staff seemed inconvenienced that I was wanting service.   The rooms were much smaller than expected but they do a decent job using the space. Bathroom was just average. The only real complaint I had was the loudness of the AC unit.  It was so loud I had to turn the volume way up on the TV to hear over it!  Bed was comfy and the room got surprisingly dark even though it looked over the plaza which was pretty bright.   More</t>
   </si>
   <si>
+    <t>Sally N Bt F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r539948193-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -759,6 +843,9 @@
     <t>Great family atmosphere. Super fun. Went for business but would have loved to have gone with the kids! Pretty good location and absolute heaven if you are a cowboys fan. The room was large and very comfortable! More</t>
   </si>
   <si>
+    <t>dfwsig</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r539788027-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -780,6 +867,9 @@
     <t>Brand new Hotel located within the Cowboy's new HQ. Very nice hotel. I was a guest of a large company to give a presentation. We checked in and went to the greeting area and had nice finger food and waited a little while for the presentation. After the presentation, we were treated to a GREAT tour of the Cowboy facility which I highly recommend to everyone. The dinner was absolutely fantastic for 1. a brand new hotel and 2. a buffet group meal.The hotel is very clean and what I would call minimalist, which I appreciate. The rooms are nice and the bed was comfortable. I did have an issue regulating the room temperature which cost the review a star. If in the area, I would highly suggest you stay and make a weekend of it.More</t>
   </si>
   <si>
+    <t>rockyMtnSojourner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r536406028-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -798,6 +888,9 @@
     <t>Nice to be in a newly built hotel but there was a strange smell in the hotel that might be the new carpet. Staff said it was the "Omni" smell, I hope not. Rooms too small for anything more than a couple of days stay. 55" tv was nice. Staff was friendly and helpful.More</t>
   </si>
   <si>
+    <t>BriLynn6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r534050405-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -822,6 +915,9 @@
     <t>I recently stayed at the Omni Frisco Hotel for a work event that we had at a conference room in the Ford Center. The hotel is very nice and beautiful, but upon arriving in my room I was not impressed. I found trimmed black hairs in the soap dish in my bathroom as well as black hairs on the bed and pillow. I didn't say anything since I was only staying one night, but for this price I would expect more cleanliness.More</t>
   </si>
   <si>
+    <t>Cardstunts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r532396899-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -844,6 +940,9 @@
   </si>
   <si>
     <t>My stay was short and very sweet.  The hotel is gorgeous and the location great.  It overlooks the Cowboys practice facility!  Wow, a dream hotel for all Cowboys fans.  The area is still developing, and it will be amazing in the coming years.  One note for management, please lighten up on the fragrance that is in the common areas.  ThanksMore</t>
+  </si>
+  <si>
+    <t>CharleeDiane</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r529728025-Omni_Frisco_Hotel-Frisco_Texas.html</t>
@@ -874,6 +973,9 @@
 MOST of the staff was absolutely fantastic.  The valet was very accommodating even with all of the VIP guests arriving, including the Dallas Cowboy Cheerleaders...that was very cool to see.  The front desk was very nice and friendly.  The only issue was when I went to the concierge to see if she could help me figure out what was around and what to do.  She told us there was not a sports bar within walking distance...we walked outside in the daylight the next day and there was one literally on the corner.  I was also trying to get information on the pool closure, which I THANKFULLY learned from the bellhop.  Saturday the entire pool was closed to guests for this VIP event so I made other plans, without...I tagged along with my boyfriend on a Dental Conference and was super excited to stay so close to the Cowboys Practice Field.  The views were stunning...except for from our hotel room.... we looked out onto a building under construction.  They were having a Grand Opening, so I'm guessing the nicer rooms were reserved for the VIP Guests of that.The hotel is beautiful...the room was very nice as long as the sheer curtain was closed. We could hear guests relatively early in the morning, but other than that didn't have issues with outside noises.  We were on the 14th floor on the front side of the building (where the valet is).MOST of the staff was absolutely fantastic.  The valet was very accommodating even with all of the VIP guests arriving, including the Dallas Cowboy Cheerleaders...that was very cool to see.  The front desk was very nice and friendly.  The only issue was when I went to the concierge to see if she could help me figure out what was around and what to do.  She told us there was not a sports bar within walking distance...we walked outside in the daylight the next day and there was one literally on the corner.  I was also trying to get information on the pool closure, which I THANKFULLY learned from the bellhop.  Saturday the entire pool was closed to guests for this VIP event so I made other plans, without the help of the concierge.Finally, I had been trying to see if they had any shuttles or services from the hotel to Arlington for the game (you would think there would be something) and I was told we had to have 25 people and was not given much other info than that.  With that said, we cancelled our Sunday night and traveled to Arlington for convenience.I highly recommend Neighborhood Services, the restaurant at the front of the hotel. The waiter we had Thursday night was fantastic.  He made great suggestions, food was terrific and we were even able to leave with our wine glasses since we had ordered a bootle.  I went back down there Friday for lunch and the bar tender was fantastic, Ivan, I think.  Was very nice and was able to make many suggestions about what to do in Dallas  since I was left still wondering.I do wish I would have had time to see the facilities, which I think would possibly have made a change in my opinion of the area, but I don't know that we would stay here again unless it was specifically for something in Frisco.  I imagine the little town area is going to be amazing, but we were about a week too early. There are still several restaurants that aren't opened yet and other than a Lincoln dealership and The Star, I'm not sure what else you would travel there for.More</t>
   </si>
   <si>
+    <t>EveM4u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r529606285-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -890,6 +992,9 @@
   </si>
   <si>
     <t>Big Dallas Cowboy Fan so this was an ideal hotel to stay for me. Was visiting family and stayed at this beautiful, new hotel. Everyone was friendly and hotel is very clean. To be expected from a new hotel. Not much around the area since it is still being built up but soon it will be a small city in the city. My new go to place.More</t>
+  </si>
+  <si>
+    <t>XLTdryvr</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r529209460-Omni_Frisco_Hotel-Frisco_Texas.html</t>
@@ -915,6 +1020,9 @@
 The second visit to was better than the first!  Our holiday party will be held at the Omni Frisco this year, so a couple of us were invited to the hotel grand opening.  And guess who was there?!  The Cowboys owner himself.  I’d like to think the hotel staff catered to us, but I’m certain they put on an excellent display because of their partnership with The Star.  It was “tailgate chic” themed, with a very smart set up on the field.  It was roped off for privacy while we snapped pictures with the cowboy cheerleaders and ate hors d’oeuvres under the crisp Frisco sky.  The night was beautiful, as if Omni set it up that way.   I can say for other events, there are pretentious guests with inattentive staff, but none of that was immanent this night.  The staff was so gracious...By now you know this connects to the Dallas Cowboys headquarters, so you’ll find a cowboys theme throughout.  The first visit to Omni at Neighborhood Services was in late July, we stopped in after a group tour of The Star at Ford Center.  At that time the concessions were not open, so we were just in time for the Omni soft opening.  Food was awesome at the restaurant, service was slow.  I think this was because it was “new” and the staff was getting their feel of the place.  Everyone we encountered was very professional and pleasant.  The second visit to was better than the first!  Our holiday party will be held at the Omni Frisco this year, so a couple of us were invited to the hotel grand opening.  And guess who was there?!  The Cowboys owner himself.  I’d like to think the hotel staff catered to us, but I’m certain they put on an excellent display because of their partnership with The Star.  It was “tailgate chic” themed, with a very smart set up on the field.  It was roped off for privacy while we snapped pictures with the cowboy cheerleaders and ate hors d’oeuvres under the crisp Frisco sky.  The night was beautiful, as if Omni set it up that way.   I can say for other events, there are pretentious guests with inattentive staff, but none of that was immanent this night.  The staff was so gracious and accommodating.   Without making this review too long, we headed up to the 4th floor and out to the pool desk, where Neighborhood Services set up a huge spread.  Each carving station looked better than the last, some cuisine I didn’t recognize.  There was stage area with a band, tables with a view, a DJ and light show… all leading up to a toast from Jerry Jones, Emmitt Smith and the hotel management.  Job - well - done!  I can’t wait to see what’s on the menu for December. ;)Not so great moments:Lone star valet – The guy who brought my car was so tall and so nervous.  He forgot to put my car in park before getting out, he also spilled water in my seat but I didn’t see a water bottle in his hand.  Poor guy, he said thank you for a saving him since there was a Lexus I think in front of me, I yelled, he stopped before rolling into it.  I still tipped him (when I got home, I noticed his knee kicked in my headlight knob). :|MirMir – Black and white photos? The machine kept malfunctioning so we didn’t get out prints, but thank you so much for the link to email!More</t>
   </si>
   <si>
+    <t>clow99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r524494893-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -939,6 +1047,9 @@
     <t>This was a gift for my husbands birthday. It was the opening game against the Giants.Love the hotel 5 star all the way. The room even had the NFL ticket in the room. The best part is we got that W.19-3 DC4LMore</t>
   </si>
   <si>
+    <t>Likeness</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r523195305-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1068,9 @@
     <t>My husband and I stayed here for my birthday.  The service everywhere was excellent. We did online check-in so our keys were waiting at the front desk when we arrived.  There was a piece of birthday cake in the room.  So nice!  The rooms are perfect. Our room overlooked The Star and the Cowboys practice field as well as a view of the pool.  We ate dinner and breakfast at Neighborhood Services restaurant, but what we had was not remarkable.  It was average at best.  We loved the hotel and will definitely stay in the hotel again.More</t>
   </si>
   <si>
+    <t>Debi J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r521191349-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -981,6 +1095,9 @@
     <t>My husband and I spent our 23rd anniversary at the Omni Frisco and the concept is amazing! Their collaboration with the Dallas Cowboys has truly made this hotel a fan's dream. The hotel sits right on the property of the Dallas Cowboys' headquarters. Walk out the hotel doors and you'll step onto a turf field open to the public. Seeing kids and adults throwing footballs below a jumbo TV screen that lights up the turf field was a sight to see! There are several restaurants within walking distance and lots of Dallas Cowboy history to see. You never know who might pass by! The rooms in the hotel are modern and we loved the touch of mixing modern design with football art. The throw across the bed even featured the Star symbol of the Dallas Cowboys. The staff was very friendly as well. If you are looking for a special place to stay, this is your place! More</t>
   </si>
   <si>
+    <t>Stan F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r513366816-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1122,9 @@
     <t>The hotel staff could not have been nicer. Only complaints are the bedroom area of the room could have bigger instead of using so much space on the restroom. Also, the A/C was VERY loud even when turned on low. Nice view although will look better once the area is completed.More</t>
   </si>
   <si>
+    <t>easton996</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r510783186-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1029,6 +1149,9 @@
     <t>The hotel had only been open for 19 days.  Staff is welcoming and friendly.  Rooms are beautiful. Still smells new. Comfy beds, lots of pillows.  Large bathroom with pocket door, tiled shower.  Fourth floor outdoor pool with bar.  Great restaurant and wine bar.  More</t>
   </si>
   <si>
+    <t>ChiefPushmataha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r508836761-Omni_Frisco_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1045,6 +1168,9 @@
   </si>
   <si>
     <t>Out of 2000 hotel nights in the past 18 years, the Omni Frisco Hotel is my new favorite. The hotel had been open for about 7 days when we stayed there after attending the very first concert at the Ford Center next door. From the moment we arrived, everyone was incredibly welcoming and helpful. The hotel itself was beautiful and clean. We had a corner suite on the 6th floor overlooking the Ford Center courtyard. The room was very nice, the bed was awesome, the bathroom was incredible with a large shower and a modern standalone tub with a floor to ceiling window looking south. The shower drain consisted of 2 nearly imperceptible slits in the floor tile. I've seen similar rectangular drains, but none quite as stealthy! My wife loved the tub, and pretty much everything about the bathroom... and the entire suite for that matter. There were only a few items that we didn't like. The air conditioner fan was a bit loud even on the lowest speed. Also, in the middle of the night the motion-sensing bathroom lights turned on by themselves, which woke us up twice before I decided to close the pocket door. Lastly, the living area seemed cramped. The TV was mounted to the wall, as there would have been no room for a piece of furniture for it to stand upon. It's a brand new hotel, so one would expect a few opportunities...Out of 2000 hotel nights in the past 18 years, the Omni Frisco Hotel is my new favorite. The hotel had been open for about 7 days when we stayed there after attending the very first concert at the Ford Center next door. From the moment we arrived, everyone was incredibly welcoming and helpful. The hotel itself was beautiful and clean. We had a corner suite on the 6th floor overlooking the Ford Center courtyard. The room was very nice, the bed was awesome, the bathroom was incredible with a large shower and a modern standalone tub with a floor to ceiling window looking south. The shower drain consisted of 2 nearly imperceptible slits in the floor tile. I've seen similar rectangular drains, but none quite as stealthy! My wife loved the tub, and pretty much everything about the bathroom... and the entire suite for that matter. There were only a few items that we didn't like. The air conditioner fan was a bit loud even on the lowest speed. Also, in the middle of the night the motion-sensing bathroom lights turned on by themselves, which woke us up twice before I decided to close the pocket door. Lastly, the living area seemed cramped. The TV was mounted to the wall, as there would have been no room for a piece of furniture for it to stand upon. It's a brand new hotel, so one would expect a few opportunities for improvement. Overall, it was a wonderful experience punctuated by the incredible service received by each and every member of the hotel staff that we encountered. Their enthusiasm and professionalism was refreshing! I highly recommend it!More</t>
+  </si>
+  <si>
+    <t>Jordan072</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12478585-r506740839-Omni_Frisco_Hotel-Frisco_Texas.html</t>
@@ -1576,43 +1702,47 @@
       <c r="A2" t="n">
         <v>66457</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>173223</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1636,50 +1766,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66457</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>173224</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1703,50 +1837,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66457</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>173225</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1770,50 +1908,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66457</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>4311</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1837,50 +1979,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66457</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>93330</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1900,50 +2046,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66457</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>6384</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -1965,56 +2115,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="X7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66457</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>173226</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2036,56 +2190,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="X8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66457</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>173227</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>97</v>
       </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>90</v>
-      </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2097,56 +2255,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="X9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66457</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>173228</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2168,56 +2330,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="X10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66457</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>173229</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2233,56 +2399,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="X11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66457</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>173230</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2294,56 +2464,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="X12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66457</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>173231</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2365,56 +2539,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="X13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66457</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>173232</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2438,50 +2616,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66457</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>173233</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2505,50 +2687,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>66457</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>37784</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2566,56 +2752,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="X16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>66457</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>173234</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2633,56 +2823,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="X17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="Y17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>66457</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>173235</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2698,56 +2892,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="X18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="Y18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>66457</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>85191</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2759,56 +2957,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="X19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>66457</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>173236</v>
+      </c>
+      <c r="C20" t="s">
+        <v>186</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O20" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2820,56 +3022,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="X20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>66457</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>173235</v>
+      </c>
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O21" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2881,56 +3087,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="X21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>66457</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>3220</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2942,56 +3152,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="X22" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="Y22" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>66457</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>173237</v>
+      </c>
+      <c r="C23" t="s">
+        <v>211</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s">
+        <v>216</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>192</v>
       </c>
-      <c r="J23" t="s">
-        <v>193</v>
-      </c>
-      <c r="K23" t="s">
-        <v>194</v>
-      </c>
-      <c r="L23" t="s">
-        <v>195</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>173</v>
-      </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3003,56 +3217,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="X23" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="Y23" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>66457</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>173238</v>
+      </c>
+      <c r="C24" t="s">
+        <v>218</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="J24" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="K24" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O24" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3064,56 +3282,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="X24" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="Y24" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>66457</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>173239</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3127,50 +3349,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>66457</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>173240</v>
+      </c>
+      <c r="C26" t="s">
+        <v>233</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="J26" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="K26" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O26" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3182,56 +3408,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="X26" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="Y26" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>66457</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>173241</v>
+      </c>
+      <c r="C27" t="s">
+        <v>242</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="J27" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="K27" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O27" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3251,50 +3481,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>66457</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>173242</v>
+      </c>
+      <c r="C28" t="s">
+        <v>249</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="J28" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="K28" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O28" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3306,56 +3540,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="X28" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="Y28" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>66457</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>98901</v>
+      </c>
+      <c r="C29" t="s">
+        <v>258</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="J29" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="K29" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3367,47 +3605,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="X29" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="Y29" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>66457</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>173243</v>
+      </c>
+      <c r="C30" t="s">
+        <v>268</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="J30" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="K30" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
@@ -3424,56 +3666,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="X30" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="Y30" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>66457</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>173244</v>
+      </c>
+      <c r="C31" t="s">
+        <v>275</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="J31" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="K31" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3493,50 +3739,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>66457</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>173245</v>
+      </c>
+      <c r="C32" t="s">
+        <v>283</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="J32" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="K32" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="O32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -3554,56 +3804,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="X32" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="Y32" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>66457</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>173246</v>
+      </c>
+      <c r="C33" t="s">
+        <v>290</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="J33" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="K33" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3619,56 +3873,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="X33" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="Y33" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>66457</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>173247</v>
+      </c>
+      <c r="C34" t="s">
+        <v>299</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="J34" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="K34" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="L34" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -3684,56 +3942,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="X34" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="Y34" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>66457</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>173248</v>
+      </c>
+      <c r="C35" t="s">
+        <v>308</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="J35" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="K35" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="O35" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -3749,56 +4011,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="X35" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="Y35" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>66457</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>173249</v>
+      </c>
+      <c r="C36" t="s">
+        <v>317</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="J36" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="K36" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="L36" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="O36" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -3816,56 +4082,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="X36" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="Y36" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>66457</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>173250</v>
+      </c>
+      <c r="C37" t="s">
+        <v>324</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="J37" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="K37" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -3883,56 +4153,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="X37" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="Y37" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>66457</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>173251</v>
+      </c>
+      <c r="C38" t="s">
+        <v>332</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="J38" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="K38" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="L38" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="O38" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -3950,56 +4224,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="X38" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="Y38" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>66457</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>35472</v>
+      </c>
+      <c r="C39" t="s">
+        <v>341</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="J39" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="K39" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="L39" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="O39" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4017,56 +4295,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="X39" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="Y39" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>66457</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>43760</v>
+      </c>
+      <c r="C40" t="s">
+        <v>348</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="J40" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="K40" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="L40" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="O40" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4078,47 +4360,51 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="X40" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="Y40" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>66457</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>173252</v>
+      </c>
+      <c r="C41" t="s">
+        <v>357</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="J41" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="K41" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="L41" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
@@ -4135,56 +4421,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="X41" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="Y41" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>66457</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>173253</v>
+      </c>
+      <c r="C42" t="s">
+        <v>366</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="J42" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="K42" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="L42" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4196,56 +4486,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="X42" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="Y42" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>66457</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>173254</v>
+      </c>
+      <c r="C43" t="s">
+        <v>375</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="J43" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="K43" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="L43" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="O43" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4257,56 +4551,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="X43" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="Y43" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>66457</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>173255</v>
+      </c>
+      <c r="C44" t="s">
+        <v>382</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="J44" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="K44" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="L44" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="O44" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4318,13 +4616,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="X44" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="Y44" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
